--- a/biology/Zoologie/Colias_eogene/Colias_eogene.xlsx
+++ b/biology/Zoologie/Colias_eogene/Colias_eogene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias eogene est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,49 +523,52 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias eogene a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1865[1].
-Sous-espèces
-Colias eogene eogene
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias eogene a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Colias_eogene</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Colias eogene eogene
 Colias eogene erythas (Grum-Grshimailo, 1890)
 Colias eogene elissa (Grum-Grshimailo, 1890)
 Colias eogene francesca (Watkins, 1927)
-Colias eogene shandura (Evans, 1926)[1].
-Nom vernaculaire
-Colias eogene se nomme Fiery Clouded Yellow en anglais.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Colias_eogene</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias eogene est un papillon au dessus de couleur orange avec une large bande marron le long du bord externe, marquée ou non d'une ligne de marques claires.
-</t>
+Colias eogene shandura (Evans, 1926).</t>
         </is>
       </c>
     </row>
@@ -578,14 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias eogene vole de juin à aout.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Astragalus[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias eogene se nomme Fiery Clouded Yellow en anglais.
 </t>
         </is>
       </c>
@@ -611,16 +630,191 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias eogene est un papillon au dessus de couleur orange avec une large bande marron le long du bord externe, marquée ou non d'une ligne de marques claires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_eogene</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias eogene vole de juin à aout.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_eogene</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Astragalus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_eogene</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias eogene est présent en Afghanistan et en Inde dans l’Himalaya[1].
-Biotope
-Colias eogene réside en montagne entre 2 700 m et 4 200 m[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias eogene est présent en Afghanistan et en Inde dans l’Himalaya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_eogene</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias eogene réside en montagne entre 2 700 m et 4 200 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_eogene</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_eogene</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
